--- a/RMUTL_DOCUMENT/ประเมิน/2025/รอบ 2/2_แบบฟอรมข้อตกลงสายวิชาการ.xlsx
+++ b/RMUTL_DOCUMENT/ประเมิน/2025/รอบ 2/2_แบบฟอรมข้อตกลงสายวิชาการ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ประเมิน\2025\รอบ 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_DOCUMENT\ประเมิน\2025\รอบ 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D5019-BC16-4104-BA51-BDB1C15E2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A919F-5F16-47E6-8435-A09337DAEF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="861" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="861" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ส่วนปก" sheetId="11" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="383">
   <si>
     <t>ส่วนที่  ๑  องค์ประกอบที่ ๑ ผลสัมฤทธิ์ของงาน</t>
   </si>
@@ -576,9 +576,6 @@
     <t>1.5 ภาระงานการจัดการเรียนการสอนโดย</t>
   </si>
   <si>
-    <t xml:space="preserve"> - หนังสืออนุมัติ/คำสั่ง</t>
-  </si>
-  <si>
     <t xml:space="preserve">       9 ภาระงาน/สัปดาห์</t>
   </si>
   <si>
@@ -660,36 +657,12 @@
     <t>กิจกรรมนักศึกษา</t>
   </si>
   <si>
-    <t>6.1 ภาระงานสำหรับบุคลากรสายวิชาการ</t>
-  </si>
-  <si>
     <t>7. ภาระงานที่ได้รับแต่งตั้งให้ดำรงตำแหน่ง</t>
   </si>
   <si>
     <t xml:space="preserve">และงานที่ได้รับมอบหมายอื่น ๆ </t>
   </si>
   <si>
-    <t>7.1 ภาระงานสำหรับบุคลากรสายวิชาการ</t>
-  </si>
-  <si>
-    <t>ที่ได้รับการแต่งตั้งให้ดำรงตำแหน่งและงาน</t>
-  </si>
-  <si>
-    <t>ที่ได้รับมอบหมายอื่นๆ นอกเหนือจากข้อ 6</t>
-  </si>
-  <si>
-    <t>สามารถคิดภาระงานที่ดำรงตำแหน่งและงาน</t>
-  </si>
-  <si>
-    <t>ที่ได้รับมอบหมายทดแทนภาระงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทางวิชาการ </t>
-  </si>
-  <si>
-    <t>(คิดภาระงานตามตารางที่ 23 เอกสาร</t>
-  </si>
-  <si>
     <t>ส่วนที่ 2</t>
   </si>
   <si>
@@ -1108,9 +1081,6 @@
   </si>
   <si>
     <t>(คิดภาระงานตามตารางที่ 20 )</t>
-  </si>
-  <si>
-    <t>ที่ดำรงตำแหน่งผู้บริหาร ตารางที่ 22</t>
   </si>
   <si>
     <t>หรือกรรมการอื่น ๆ 4.1 ระดับท้องถิ่น</t>
@@ -1953,21 +1923,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1980,11 +1956,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2028,6 +2022,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2036,72 +2072,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5634,60 +5604,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="48"/>
+    <col min="1" max="1" width="7.85546875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="48"/>
     <col min="3" max="3" width="28" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.1796875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" style="48" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="48"/>
+    <col min="4" max="4" width="48.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="171" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="A1" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
       <c r="L1" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="171" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="A2" s="173" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="47"/>
@@ -5730,7 +5700,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H7" s="47"/>
     </row>
@@ -5740,49 +5710,49 @@
         <v>8</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="171" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
+      <c r="A9" s="173" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="51"/>
       <c r="B11" s="49" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="49" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="49" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="48" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5790,13 +5760,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="51"/>
       <c r="B16" s="48" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5804,29 +5774,29 @@
         <v>11</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
       <c r="A18" s="51"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172" t="s">
+      <c r="C19" s="174"/>
+      <c r="D19" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172" t="s">
+      <c r="E19" s="174"/>
+      <c r="F19" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="172"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="52" t="s">
         <v>15</v>
       </c>
@@ -5841,50 +5811,50 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="174"/>
+      <c r="C21" s="172"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="174"/>
+      <c r="C22" s="172"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="174"/>
+      <c r="C23" s="172"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="174"/>
+      <c r="C24" s="172"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="174"/>
+      <c r="C25" s="172"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
@@ -5921,10 +5891,10 @@
       <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="174"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
@@ -5946,7 +5916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" customHeight="1">
+    <row r="32" spans="1:8" ht="13.35" customHeight="1">
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
       <c r="H32" s="47"/>
@@ -5971,6 +5941,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B21:C21"/>
@@ -5978,12 +5954,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5999,31 +5969,31 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="62" style="62" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="62" customWidth="1"/>
-    <col min="4" max="16384" width="9.08984375" style="62"/>
+    <col min="2" max="2" width="12.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="62" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -6031,11 +6001,11 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="24">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
     </row>
     <row r="5" spans="1:5" s="86" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="28" t="s">
@@ -6090,7 +6060,7 @@
     </row>
     <row r="11" spans="1:5" ht="24">
       <c r="A11" s="30" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="35"/>
@@ -6098,7 +6068,7 @@
     </row>
     <row r="12" spans="1:5" ht="24">
       <c r="A12" s="31" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="41"/>
@@ -6246,7 +6216,7 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -6289,12 +6259,12 @@
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
     </row>
-    <row r="38" spans="1:3" ht="24.5" thickBot="1">
+    <row r="38" spans="1:3" ht="24.75" thickBot="1">
       <c r="A38" s="39" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C38" s="90">
         <v>70</v>
@@ -6316,24 +6286,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="17" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="17"/>
+    <col min="5" max="5" width="27.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="62" customFormat="1">
       <c r="A1" s="175" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -6351,194 +6321,194 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="176" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="176" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="187"/>
-      <c r="F3" s="177"/>
-    </row>
-    <row r="4" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+        <v>253</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="195"/>
+      <c r="D3" s="178" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="195"/>
+      <c r="F3" s="179"/>
+    </row>
+    <row r="4" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="176" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="177"/>
-    </row>
-    <row r="5" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D4" s="178" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="195"/>
+      <c r="F4" s="179"/>
+    </row>
+    <row r="5" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="92" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="66"/>
     </row>
-    <row r="6" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="26" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E6" s="94"/>
       <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="46"/>
       <c r="B7" s="70" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="70" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="69"/>
     </row>
-    <row r="8" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="91" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="45" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="66"/>
     </row>
-    <row r="9" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="45"/>
       <c r="C9" s="17"/>
       <c r="D9" s="92" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="45"/>
       <c r="C10" s="17"/>
       <c r="D10" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="188" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="189"/>
-    </row>
-    <row r="11" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+        <v>344</v>
+      </c>
+      <c r="E10" s="196" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="197"/>
+    </row>
+    <row r="11" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="93" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C11" s="94"/>
       <c r="D11" s="96" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="65"/>
     </row>
-    <row r="12" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="91"/>
       <c r="B12" s="45"/>
       <c r="C12" s="17"/>
       <c r="D12" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="190" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="191"/>
-    </row>
-    <row r="13" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+        <v>344</v>
+      </c>
+      <c r="E12" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="199"/>
+    </row>
+    <row r="13" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="70"/>
       <c r="C13" s="16"/>
       <c r="D13" s="70"/>
       <c r="E13" s="97" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F13" s="98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="93" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="26" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E14" s="94"/>
       <c r="F14" s="65"/>
     </row>
-    <row r="15" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="14" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F15" s="69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>54</v>
@@ -6550,43 +6520,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +6564,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>54</v>
@@ -6604,7 +6574,7 @@
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
@@ -6614,32 +6584,32 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" s="99" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:6" s="99" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.95" customHeight="1">
       <c r="A23" s="24">
         <v>1</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C23" s="100">
         <v>150</v>
@@ -6657,12 +6627,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="24" spans="1:6" ht="18.95" customHeight="1">
       <c r="A24" s="24">
         <v>2</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C24" s="10">
         <v>130</v>
@@ -6680,12 +6650,12 @@
         <v>65.130434782608688</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="25" spans="1:6" ht="18.95" customHeight="1">
       <c r="A25" s="103">
         <v>3</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C25" s="100">
         <v>120</v>
@@ -6703,12 +6673,12 @@
         <v>62.695652173913047</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="26" spans="1:6" ht="18.95" customHeight="1">
       <c r="A26" s="104">
         <v>4</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C26" s="105">
         <v>115.5</v>
@@ -6726,7 +6696,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="27" spans="1:6" ht="18.95" customHeight="1">
       <c r="A27" s="24">
         <v>5</v>
       </c>
@@ -6747,7 +6717,7 @@
         <v>55.391304347826086</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="28" spans="1:6" ht="18.95" customHeight="1">
       <c r="A28" s="24">
         <v>6</v>
       </c>
@@ -6768,7 +6738,7 @@
         <v>52.956521739130437</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="29" spans="1:6" ht="18.95" customHeight="1">
       <c r="A29" s="24">
         <v>7</v>
       </c>
@@ -6789,7 +6759,7 @@
         <v>50.521739130434781</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="30" spans="1:6" ht="18.95" customHeight="1">
       <c r="A30" s="24">
         <v>8</v>
       </c>
@@ -6810,7 +6780,7 @@
         <v>48.086956521739125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="31" spans="1:6" ht="18.95" customHeight="1">
       <c r="A31" s="24">
         <v>9</v>
       </c>
@@ -6831,12 +6801,12 @@
         <v>44.434782608695656</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1">
+    <row r="32" spans="1:6" ht="18.95" customHeight="1">
       <c r="A32" s="107" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C32" s="108">
         <v>35</v>
@@ -6854,57 +6824,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="192" t="s">
+    <row r="33" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="192"/>
+      <c r="B33" s="200"/>
       <c r="C33" s="23"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="184" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="193" t="s">
-        <v>312</v>
-      </c>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
-    </row>
-    <row r="35" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="34" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="192" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="201" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" s="202"/>
+      <c r="F34" s="203"/>
+    </row>
+    <row r="35" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="112" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
       <c r="D35" s="70" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="69"/>
     </row>
-    <row r="36" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="193" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="194"/>
-      <c r="C36" s="195"/>
+    <row r="36" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="201" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="202"/>
+      <c r="C36" s="203"/>
       <c r="D36" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F36" s="65"/>
     </row>
-    <row r="37" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="37" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="112" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B37" s="95"/>
       <c r="C37" s="95"/>
@@ -6914,23 +6884,23 @@
       <c r="E37" s="16"/>
       <c r="F37" s="69"/>
     </row>
-    <row r="38" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="193" t="s">
-        <v>319</v>
-      </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="195"/>
+    <row r="38" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="201" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
       <c r="D38" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F38" s="111"/>
     </row>
-    <row r="39" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="39" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="112" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -6942,23 +6912,23 @@
       </c>
       <c r="F39" s="69"/>
     </row>
-    <row r="40" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="184" t="s">
-        <v>322</v>
-      </c>
-      <c r="B40" s="185"/>
-      <c r="C40" s="186"/>
+    <row r="40" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="192" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="193"/>
+      <c r="C40" s="194"/>
       <c r="D40" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E40" s="110" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F40" s="65"/>
     </row>
-    <row r="41" spans="1:6" s="62" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="41" spans="1:6" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="112" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -6996,33 +6966,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="48" customWidth="1"/>
-    <col min="3" max="4" width="3.6328125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="3.08984375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="48" customWidth="1"/>
+    <col min="3" max="4" width="3.5703125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="9" style="48"/>
-    <col min="7" max="7" width="2.36328125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="48" customWidth="1"/>
     <col min="8" max="8" width="17" style="48" customWidth="1"/>
     <col min="9" max="9" width="6" style="48" customWidth="1"/>
-    <col min="10" max="11" width="3.6328125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="3.36328125" style="48" customWidth="1"/>
-    <col min="13" max="13" width="8.6328125" style="48" customWidth="1"/>
+    <col min="10" max="11" width="3.5703125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="48" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="48" customWidth="1"/>
     <col min="14" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="77" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="113" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="76" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7030,13 +7000,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7044,13 +7014,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1"/>
@@ -7059,7 +7029,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -7072,7 +7042,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="115" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J7" s="116"/>
       <c r="K7" s="116"/>
@@ -7083,19 +7053,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="172" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="172" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="172" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="B8" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="174" t="s">
+        <v>215</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>24</v>
@@ -7104,17 +7074,17 @@
       <c r="H8" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="J8" s="172" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="172" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="172" t="s">
-        <v>224</v>
+      <c r="I8" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="174" t="s">
+        <v>215</v>
       </c>
       <c r="M8" s="79" t="s">
         <v>24</v>
@@ -7124,91 +7094,91 @@
       <c r="A9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="81" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="118" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
+        <v>210</v>
+      </c>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
       <c r="M9" s="81" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="203">
+      <c r="B10" s="210">
         <v>3</v>
       </c>
-      <c r="C10" s="203">
+      <c r="C10" s="210">
         <v>3</v>
       </c>
-      <c r="D10" s="203">
+      <c r="D10" s="210">
         <v>4</v>
       </c>
-      <c r="E10" s="203">
+      <c r="E10" s="210">
         <v>5</v>
       </c>
       <c r="F10" s="119"/>
       <c r="G10" s="120"/>
       <c r="H10" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="203">
+        <v>217</v>
+      </c>
+      <c r="I10" s="210">
         <v>3</v>
       </c>
-      <c r="J10" s="203">
+      <c r="J10" s="210">
         <v>4</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="210">
         <v>4</v>
       </c>
-      <c r="L10" s="203">
+      <c r="L10" s="210">
         <v>4</v>
       </c>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="209"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
       <c r="F11" s="121"/>
       <c r="G11" s="120"/>
       <c r="H11" s="121" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
+        <v>218</v>
+      </c>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
       <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="203">
+      <c r="B12" s="210">
         <v>3</v>
       </c>
-      <c r="C12" s="203">
+      <c r="C12" s="210">
         <v>3</v>
       </c>
-      <c r="D12" s="203">
+      <c r="D12" s="210">
         <v>3</v>
       </c>
-      <c r="E12" s="203">
+      <c r="E12" s="210">
         <v>4</v>
       </c>
       <c r="F12" s="119"/>
@@ -7216,40 +7186,40 @@
       <c r="H12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="203">
+      <c r="I12" s="210">
         <v>3</v>
       </c>
-      <c r="J12" s="203">
+      <c r="J12" s="210">
         <v>4</v>
       </c>
-      <c r="K12" s="203">
+      <c r="K12" s="210">
         <v>4</v>
       </c>
-      <c r="L12" s="203">
+      <c r="L12" s="210">
         <v>4</v>
       </c>
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="209"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
       <c r="F13" s="121"/>
       <c r="G13" s="120"/>
       <c r="H13" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="119" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B14" s="122">
         <v>3</v>
@@ -7284,7 +7254,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="121" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B15" s="124"/>
       <c r="C15" s="124"/>
@@ -7406,59 +7376,59 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="129" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
       <c r="F21" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="205" t="s">
+      <c r="H21" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="206"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="207"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="217"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="213" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
+        <v>216</v>
+      </c>
+      <c r="B22" s="207" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209"/>
       <c r="F22" s="79" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="205" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="206"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="205" t="s">
+      <c r="I22" s="215" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="216"/>
+      <c r="K22" s="217"/>
+      <c r="L22" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="207"/>
+      <c r="M22" s="217"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="81" t="s">
@@ -7496,7 +7466,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="127" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B25" s="137"/>
       <c r="C25" s="138"/>
@@ -7512,7 +7482,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="121" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B26" s="141"/>
       <c r="C26" s="142"/>
@@ -7528,18 +7498,18 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="144" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B27" s="145"/>
       <c r="C27" s="115"/>
       <c r="D27" s="115"/>
       <c r="E27" s="146"/>
       <c r="F27" s="127"/>
-      <c r="I27" s="205" t="s">
+      <c r="I27" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="206"/>
-      <c r="K27" s="207"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
       <c r="L27" s="136"/>
       <c r="M27" s="117"/>
     </row>
@@ -7555,7 +7525,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="149" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B29" s="145"/>
       <c r="C29" s="115"/>
@@ -7564,94 +7534,94 @@
       <c r="F29" s="127"/>
     </row>
     <row r="30" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="31" spans="1:13" s="152" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A31" s="200" t="s">
+    <row r="31" spans="1:13" s="152" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A31" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="201"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="202"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="189"/>
     </row>
     <row r="32" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="196" t="s">
+      <c r="A32" s="218" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="198"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="220"/>
     </row>
     <row r="33" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="196" t="s">
+      <c r="A33" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="197"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="220"/>
     </row>
     <row r="34" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="198"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="219"/>
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+      <c r="M34" s="220"/>
     </row>
     <row r="35" spans="1:13" s="153" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A35" s="196" t="s">
+      <c r="A35" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="197"/>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="198"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="220"/>
     </row>
     <row r="36" spans="1:13" s="153" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A36" s="154" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B36" s="155"/>
       <c r="C36" s="155"/>
@@ -7666,17 +7636,17 @@
       <c r="L36" s="156"/>
       <c r="M36" s="156"/>
     </row>
-    <row r="37" spans="1:13" ht="24.5" thickBot="1">
-      <c r="A37" s="199" t="s">
+    <row r="37" spans="1:13" ht="24.75" thickBot="1">
+      <c r="A37" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
       <c r="H37" s="48" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I37" s="48" t="s">
         <v>147</v>
@@ -7685,14 +7655,14 @@
       <c r="M37" s="158"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
     </row>
     <row r="39" spans="1:13">
       <c r="E39" s="159" t="s">
@@ -7709,24 +7679,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="J10:J11"/>
@@ -7743,11 +7700,24 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7759,17 +7729,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.453125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
     <col min="6" max="6" width="8" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
@@ -7819,13 +7789,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -7858,7 +7828,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="16"/>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -7914,7 +7884,7 @@
     </row>
     <row r="13" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A13" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="9"/>
@@ -7927,7 +7897,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C14" s="9">
         <v>6</v>
@@ -7943,7 +7913,7 @@
     </row>
     <row r="15" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A15" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="9"/>
@@ -7953,7 +7923,7 @@
     </row>
     <row r="16" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A16" s="67" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="9"/>
@@ -7963,7 +7933,7 @@
     </row>
     <row r="17" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A17" s="67" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="9"/>
@@ -7973,7 +7943,7 @@
     </row>
     <row r="18" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A18" s="67" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="9"/>
@@ -7994,7 +7964,7 @@
         <v>171</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C20" s="63">
         <v>24</v>
@@ -8010,7 +7980,7 @@
     </row>
     <row r="21" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A21" s="67" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8020,7 +7990,7 @@
     </row>
     <row r="22" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A22" s="67" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8030,7 +8000,7 @@
     </row>
     <row r="23" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A23" s="67" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8048,7 +8018,7 @@
     </row>
     <row r="25" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A25" s="63" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="9"/>
@@ -8058,7 +8028,7 @@
     </row>
     <row r="26" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A26" s="67" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="9">
@@ -8075,7 +8045,7 @@
     </row>
     <row r="27" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A27" s="67" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="9"/>
@@ -8101,7 +8071,7 @@
     </row>
     <row r="30" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A30" s="45" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B30" s="63"/>
       <c r="C30" s="65"/>
@@ -8111,7 +8081,7 @@
     </row>
     <row r="31" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A31" s="45" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="66"/>
@@ -8121,10 +8091,10 @@
     </row>
     <row r="32" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A32" s="45" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C32" s="66">
         <v>6</v>
@@ -8141,7 +8111,7 @@
     <row r="33" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="9"/>
@@ -8184,7 +8154,7 @@
     </row>
     <row r="38" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A38" s="9" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -8194,10 +8164,10 @@
     </row>
     <row r="39" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A39" s="70" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C39" s="12">
         <v>3</v>
@@ -8214,10 +8184,10 @@
     <row r="40" spans="1:6" s="64" customFormat="1" ht="24">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="180" t="s">
+      <c r="C40" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="181"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="12">
         <f>SUM(E14:E39)</f>
         <v>75.599999999999994</v>
@@ -8243,18 +8213,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="74" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="74" customWidth="1"/>
     <col min="7" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
@@ -8293,13 +8263,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -8348,7 +8318,7 @@
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A9" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8358,7 +8328,7 @@
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A10" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8418,7 +8388,7 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A16" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8428,7 +8398,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A17" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -8438,7 +8408,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A18" s="45" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -8472,7 +8442,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A22" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -8482,7 +8452,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A23" s="45" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8508,7 +8478,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A26" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
@@ -8518,7 +8488,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A27" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -8556,7 +8526,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A31" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="63"/>
@@ -8566,7 +8536,7 @@
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="9"/>
@@ -8576,7 +8546,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A33" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B33" s="66"/>
       <c r="C33" s="9"/>
@@ -8594,7 +8564,7 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A35" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -8604,7 +8574,7 @@
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A36" s="9" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -8624,7 +8594,7 @@
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A38" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -8634,7 +8604,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A39" s="67" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -8656,7 +8626,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A41" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -8666,7 +8636,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A42" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -8676,7 +8646,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A43" s="9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -8741,10 +8711,10 @@
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" s="17" customFormat="1" ht="24">
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="177"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="10">
         <f>SUM(E34:E46)</f>
         <v>0</v>
@@ -8766,18 +8736,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -8816,13 +8786,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -8931,7 +8901,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A15" s="45" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8941,7 +8911,7 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A16" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8951,7 +8921,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A17" s="45" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -8968,7 +8938,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A19" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="65"/>
       <c r="C19" s="63"/>
@@ -8978,7 +8948,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="9"/>
@@ -9004,7 +8974,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A23" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="63"/>
@@ -9014,7 +8984,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A24" s="45" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -9032,7 +9002,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A26" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="63"/>
@@ -9042,7 +9012,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A27" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="9"/>
@@ -9052,7 +9022,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A28" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="9"/>
@@ -9104,7 +9074,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A33" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
@@ -9114,7 +9084,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A34" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -9124,7 +9094,7 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="24">
       <c r="A35" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -9171,10 +9141,10 @@
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" ht="24">
-      <c r="C40" s="176" t="s">
+      <c r="C40" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="177"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="10">
         <f>SUM(E8:E39)</f>
         <v>0</v>
@@ -9196,18 +9166,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.6328125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -9256,13 +9226,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -9311,7 +9281,7 @@
     </row>
     <row r="9" spans="1:6" ht="24">
       <c r="A9" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9371,7 +9341,7 @@
     </row>
     <row r="15" spans="1:6" ht="24">
       <c r="A15" s="45" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9381,7 +9351,7 @@
     </row>
     <row r="16" spans="1:6" ht="24">
       <c r="A16" s="45" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9401,7 +9371,7 @@
     </row>
     <row r="18" spans="1:6" ht="24">
       <c r="A18" s="63" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="63"/>
@@ -9421,7 +9391,7 @@
     </row>
     <row r="20" spans="1:6" ht="24">
       <c r="A20" s="9" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="9"/>
@@ -9431,10 +9401,10 @@
     </row>
     <row r="21" spans="1:6" ht="24">
       <c r="A21" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -9450,10 +9420,10 @@
     </row>
     <row r="22" spans="1:6" ht="24">
       <c r="A22" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -9469,10 +9439,10 @@
     </row>
     <row r="23" spans="1:6" ht="24">
       <c r="A23" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -9488,10 +9458,10 @@
     </row>
     <row r="24" spans="1:6" ht="24">
       <c r="A24" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>373</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>383</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -9507,10 +9477,10 @@
     </row>
     <row r="25" spans="1:6" ht="24">
       <c r="A25" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -9526,10 +9496,10 @@
     </row>
     <row r="26" spans="1:6" ht="24">
       <c r="A26" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
@@ -9545,10 +9515,10 @@
     </row>
     <row r="27" spans="1:6" ht="24">
       <c r="A27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>376</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>386</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
@@ -9564,10 +9534,10 @@
     </row>
     <row r="28" spans="1:6" ht="24">
       <c r="A28" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -9583,10 +9553,10 @@
     </row>
     <row r="29" spans="1:6" ht="24">
       <c r="A29" s="12" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -9603,10 +9573,10 @@
     <row r="30" spans="1:6" ht="24">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="180" t="s">
+      <c r="C30" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="181"/>
+      <c r="D30" s="177"/>
       <c r="E30" s="12">
         <f>SUM(E21:E29)</f>
         <v>4.5</v>
@@ -9629,40 +9599,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="59.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="48" customWidth="1"/>
     <col min="7" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="76" t="s">
@@ -9679,13 +9649,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>170</v>
@@ -9724,7 +9694,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -9736,7 +9706,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -9796,7 +9766,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="84" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -9806,7 +9776,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
@@ -9816,7 +9786,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -9826,7 +9796,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="60" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="60">
@@ -9842,10 +9812,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="60" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C19" s="60">
         <v>1</v>
@@ -9860,10 +9830,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="61" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C20" s="61">
         <v>1</v>
@@ -9877,10 +9847,10 @@
       <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="61">
         <f>SUM(E18:E20)</f>
         <v>4</v>
@@ -9903,17 +9873,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -9962,13 +9932,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -10007,7 +9977,7 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -10016,21 +9986,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" ht="24">
-      <c r="A9" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="A9" s="45"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>54</v>
       </c>
@@ -10100,10 +10064,10 @@
     <row r="17" spans="1:6" ht="24">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="181"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="12">
         <f>SUM(E11:E16)</f>
         <v>0</v>
@@ -10125,18 +10089,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -10185,13 +10149,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -10230,7 +10194,7 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -10240,7 +10204,7 @@
     </row>
     <row r="9" spans="1:6" ht="24">
       <c r="A9" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10249,21 +10213,15 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="A10" s="45"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="24">
-      <c r="A11" s="45" t="s">
-        <v>206</v>
-      </c>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
@@ -10273,9 +10231,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="24">
-      <c r="A12" s="45" t="s">
-        <v>207</v>
-      </c>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>54</v>
       </c>
@@ -10285,9 +10241,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="45" t="s">
-        <v>208</v>
-      </c>
+      <c r="A13" s="45"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -10295,9 +10249,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="24">
-      <c r="A14" s="45" t="s">
-        <v>209</v>
-      </c>
+      <c r="A14" s="45"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -10305,9 +10257,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="45" t="s">
-        <v>210</v>
-      </c>
+      <c r="A15" s="45"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -10315,9 +10265,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="24">
-      <c r="A16" s="45" t="s">
-        <v>211</v>
-      </c>
+      <c r="A16" s="45"/>
       <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
@@ -10327,9 +10275,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="24">
-      <c r="A17" s="45" t="s">
-        <v>165</v>
-      </c>
+      <c r="A17" s="45"/>
       <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
@@ -10339,9 +10285,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="24">
-      <c r="A18" s="45" t="s">
-        <v>166</v>
-      </c>
+      <c r="A18" s="45"/>
       <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
@@ -10351,9 +10295,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="24">
-      <c r="A19" s="45" t="s">
-        <v>167</v>
-      </c>
+      <c r="A19" s="45"/>
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
@@ -10373,10 +10315,10 @@
     <row r="21" spans="1:6" ht="24">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="177"/>
       <c r="E21" s="12"/>
       <c r="F21" s="17"/>
     </row>
@@ -10395,38 +10337,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="48" customWidth="1"/>
     <col min="6" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="186" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="220"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="187"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="57"/>
@@ -10437,25 +10379,25 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="219" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="220"/>
+        <v>248</v>
+      </c>
+      <c r="B5" s="186" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="187"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="179"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="181"/>
     </row>
     <row r="7" spans="1:5" ht="11.25" customHeight="1">
       <c r="A7" s="47"/>
@@ -10489,7 +10431,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="166" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C10" s="132">
         <v>70</v>
@@ -10502,7 +10444,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C11" s="132">
         <v>30</v>
@@ -10522,7 +10464,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="136"/>
       <c r="B13" s="167" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C13" s="132">
         <v>100</v>
@@ -10571,14 +10513,14 @@
       <c r="A23" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="202"/>
-      <c r="D23" s="200" t="s">
+      <c r="C23" s="189"/>
+      <c r="D23" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="202"/>
+      <c r="E23" s="189"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="53"/>
@@ -10612,13 +10554,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="84" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E29" s="168"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="84" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E30" s="168"/>
     </row>
@@ -10628,7 +10570,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="84" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E32" s="168"/>
     </row>
@@ -10643,22 +10585,22 @@
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="39" spans="1:5">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="217"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="218"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="185"/>
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A40" s="219" t="s">
+      <c r="A40" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="220"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="187"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="114"/>
@@ -10669,25 +10611,25 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="219" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="220"/>
+        <v>248</v>
+      </c>
+      <c r="B42" s="186" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="187"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="179"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="76" t="s">
@@ -10826,7 +10768,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="84" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C59" s="84" t="s">
         <v>123</v>
@@ -10835,7 +10777,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="169" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B60" s="80"/>
       <c r="C60" s="169"/>
@@ -10873,7 +10815,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="84" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C64" s="84" t="s">
         <v>123</v>
@@ -10882,7 +10824,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="169" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B65" s="80"/>
       <c r="C65" s="169"/>
@@ -10907,7 +10849,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="48" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10942,16 +10884,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RMUTL_DOCUMENT/ประเมิน/2025/รอบ 2/2_แบบฟอรมข้อตกลงสายวิชาการ.xlsx
+++ b/RMUTL_DOCUMENT/ประเมิน/2025/รอบ 2/2_แบบฟอรมข้อตกลงสายวิชาการ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_DOCUMENT\ประเมิน\2025\รอบ 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A919F-5F16-47E6-8435-A09337DAEF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD200C-D224-4303-B043-9E16C16F7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="861" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="861" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ส่วนปก" sheetId="11" r:id="rId1"/>
@@ -1923,18 +1923,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1956,30 +1956,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2022,6 +2022,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,39 +2072,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5621,43 +5621,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="L1" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="47"/>
@@ -5715,16 +5715,16 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="51" t="s">
@@ -5781,22 +5781,22 @@
       <c r="A18" s="51"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174" t="s">
+      <c r="C19" s="172"/>
+      <c r="D19" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174" t="s">
+      <c r="E19" s="172"/>
+      <c r="F19" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="174"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="52" t="s">
         <v>15</v>
       </c>
@@ -5811,50 +5811,50 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="172"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="172"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="172"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="172"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="172"/>
+      <c r="C25" s="174"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
@@ -5891,10 +5891,10 @@
       <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="172"/>
+      <c r="C29" s="174"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
@@ -5941,12 +5941,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B21:C21"/>
@@ -5954,6 +5948,12 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6286,7 +6286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -6960,8 +6960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -7055,16 +7055,16 @@
       <c r="A8" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="172" t="s">
         <v>215</v>
       </c>
       <c r="F8" s="79" t="s">
@@ -7074,16 +7074,16 @@
       <c r="H8" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="174" t="s">
+      <c r="I8" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="174" t="s">
+      <c r="K8" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="L8" s="174" t="s">
+      <c r="L8" s="172" t="s">
         <v>215</v>
       </c>
       <c r="M8" s="79" t="s">
@@ -7094,10 +7094,10 @@
       <c r="A9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="81" t="s">
         <v>25</v>
       </c>
@@ -7105,28 +7105,28 @@
       <c r="H9" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="81" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="212" t="s">
+      <c r="A10" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="210">
+      <c r="B10" s="208">
         <v>3</v>
       </c>
-      <c r="C10" s="210">
+      <c r="C10" s="208">
         <v>3</v>
       </c>
-      <c r="D10" s="210">
+      <c r="D10" s="208">
         <v>4</v>
       </c>
-      <c r="E10" s="210">
+      <c r="E10" s="208">
         <v>5</v>
       </c>
       <c r="F10" s="119"/>
@@ -7134,51 +7134,51 @@
       <c r="H10" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="I10" s="210">
+      <c r="I10" s="208">
         <v>3</v>
       </c>
-      <c r="J10" s="210">
+      <c r="J10" s="208">
         <v>4</v>
       </c>
-      <c r="K10" s="210">
+      <c r="K10" s="208">
         <v>4</v>
       </c>
-      <c r="L10" s="210">
+      <c r="L10" s="208">
         <v>4</v>
       </c>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="213"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
+      <c r="A11" s="214"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
       <c r="F11" s="121"/>
       <c r="G11" s="120"/>
       <c r="H11" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
       <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="212" t="s">
+      <c r="A12" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="210">
+      <c r="B12" s="208">
         <v>3</v>
       </c>
-      <c r="C12" s="210">
+      <c r="C12" s="208">
         <v>3</v>
       </c>
-      <c r="D12" s="210">
+      <c r="D12" s="208">
         <v>3</v>
       </c>
-      <c r="E12" s="210">
+      <c r="E12" s="208">
         <v>4</v>
       </c>
       <c r="F12" s="119"/>
@@ -7186,35 +7186,35 @@
       <c r="H12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="210">
+      <c r="I12" s="208">
         <v>3</v>
       </c>
-      <c r="J12" s="210">
+      <c r="J12" s="208">
         <v>4</v>
       </c>
-      <c r="K12" s="210">
+      <c r="K12" s="208">
         <v>4</v>
       </c>
-      <c r="L12" s="210">
+      <c r="L12" s="208">
         <v>4</v>
       </c>
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="213"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
       <c r="F13" s="121"/>
       <c r="G13" s="120"/>
       <c r="H13" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
       <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13">
@@ -7386,49 +7386,49 @@
       <c r="A21" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="217"/>
       <c r="F21" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="215" t="s">
+      <c r="H21" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="216"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="217"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="211"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="212"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="209"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
       <c r="F22" s="79" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="215" t="s">
+      <c r="I22" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="J22" s="216"/>
-      <c r="K22" s="217"/>
-      <c r="L22" s="215" t="s">
+      <c r="J22" s="211"/>
+      <c r="K22" s="212"/>
+      <c r="L22" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="217"/>
+      <c r="M22" s="212"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="81" t="s">
@@ -7505,11 +7505,11 @@
       <c r="D27" s="115"/>
       <c r="E27" s="146"/>
       <c r="F27" s="127"/>
-      <c r="I27" s="215" t="s">
+      <c r="I27" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="216"/>
-      <c r="K27" s="217"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="212"/>
       <c r="L27" s="136"/>
       <c r="M27" s="117"/>
     </row>
@@ -7535,89 +7535,89 @@
     </row>
     <row r="30" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="31" spans="1:13" s="152" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="189"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="188"/>
     </row>
     <row r="32" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="218" t="s">
+      <c r="A32" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="220"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="206"/>
     </row>
     <row r="33" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="220"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="206"/>
     </row>
     <row r="34" spans="1:13" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="218" t="s">
+      <c r="A34" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="219"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
-      <c r="M34" s="220"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="206"/>
     </row>
     <row r="35" spans="1:13" s="153" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A35" s="218" t="s">
+      <c r="A35" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="220"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="205"/>
+      <c r="M35" s="206"/>
     </row>
     <row r="36" spans="1:13" s="153" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A36" s="154" t="s">
@@ -7637,14 +7637,14 @@
       <c r="M36" s="156"/>
     </row>
     <row r="37" spans="1:13" ht="24.75" thickBot="1">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
       <c r="H37" s="48" t="s">
         <v>226</v>
       </c>
@@ -7655,14 +7655,14 @@
       <c r="M37" s="158"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:13">
       <c r="E39" s="159" t="s">
@@ -7679,11 +7679,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="J10:J11"/>
@@ -7700,24 +7713,11 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8213,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8736,8 +8736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -9615,24 +9615,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="76" t="s">
@@ -10353,22 +10353,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="182" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="187"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="186"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="57"/>
@@ -10381,12 +10381,12 @@
       <c r="A5" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="187"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="186"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="81" t="s">
@@ -10395,8 +10395,8 @@
       <c r="B6" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="181"/>
     </row>
     <row r="7" spans="1:5" ht="11.25" customHeight="1">
@@ -10513,14 +10513,14 @@
       <c r="A23" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="188" t="s">
+      <c r="C23" s="188"/>
+      <c r="D23" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="189"/>
+      <c r="E23" s="188"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="53"/>
@@ -10585,22 +10585,22 @@
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="39" spans="1:5">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="185"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="184"/>
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="187"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="186"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="114"/>
@@ -10613,12 +10613,12 @@
       <c r="A42" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="186" t="s">
+      <c r="B42" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="187"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="186"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="81" t="s">
@@ -10627,8 +10627,8 @@
       <c r="B43" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:5">
@@ -10884,16 +10884,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
